--- a/Assets/Spreadsheet Localizations/Scripts/Title.xlsx
+++ b/Assets/Spreadsheet Localizations/Scripts/Title.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scripts&gt;Title" sheetId="1" r:id="R1ac1caddb3544967"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scripts&gt;Title" sheetId="1" r:id="R5819b94b3da04014"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Assets/Spreadsheet Localizations/Scripts/Title.xlsx
+++ b/Assets/Spreadsheet Localizations/Scripts/Title.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scripts&gt;Title" sheetId="1" r:id="R5819b94b3da04014"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scripts&gt;Title" sheetId="1" r:id="R075c5c74c50e4adb"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -13,10 +13,10 @@
     <x:t xml:space="preserve">Template</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">@hideUI QuestLog time:0 wait:false
+    <x:t xml:space="preserve">@hideAll wait:false
+@bgm MainMenuMusic wait:false
 @back MainMenu wait:false
-@bgm MainMenuMusic
-@spawn SunShafts params:1,0.5,60
+@spawn SunShafts params:0.5,0,60
 @stop</x:t>
   </x:si>
 </x:sst>

--- a/Assets/Spreadsheet Localizations/Scripts/Title.xlsx
+++ b/Assets/Spreadsheet Localizations/Scripts/Title.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scripts&gt;Title" sheetId="1" r:id="R075c5c74c50e4adb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scripts&gt;Title" sheetId="1" r:id="R92f14d18d7394e05"/>
   </x:sheets>
 </x:workbook>
 </file>
